--- a/workfile/锐安项目文档/方案页面原型及修改/经营指标分析-v1.1.xlsx
+++ b/workfile/锐安项目文档/方案页面原型及修改/经营指标分析-v1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="合同总额分析" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>合同总额可分析相关数据有合同总额，预计合同金额（从销售立项表中取数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,10 +263,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>当季度剩余预计完成数展示当季度预计完成数，当季的未签预计合同数，概率合同额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>修改提要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,12 +288,44 @@
   <si>
     <t>回款总体同回款，在当季度预计回款部分展示季度总回款，当季度存量，当季度逾期存量</t>
   </si>
+  <si>
+    <t>当季度剩余预计完成数展示当季度预计完成数，当季的未签预计合同额，概率合同额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注:二次修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将当季度预计完成数去除，替换成商机，商机从商机拓展立项表中取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：商机拓展立项中没有商机金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当季度存量，当季度逾期存量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗图去掉，回款情况拿到当季度存量及当季度逾期存量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同总额的区间对比没有实际意义，去除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +357,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +385,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,6 +423,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,34 +604,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>202</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,8 +651,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="575600352"/>
-        <c:axId val="575610688"/>
+        <c:axId val="1714151856"/>
+        <c:axId val="1714142608"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -686,34 +743,34 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>156</c:v>
+                        <c:v>149</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>196</c:v>
+                        <c:v>163</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>92</c:v>
+                        <c:v>189</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>147</c:v>
+                        <c:v>71</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>73</c:v>
+                        <c:v>205</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>105</c:v>
+                        <c:v>158</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>73</c:v>
+                        <c:v>167</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>50</c:v>
+                        <c:v>66</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>150</c:v>
+                        <c:v>193</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>66</c:v>
+                        <c:v>56</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -729,7 +786,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="575600352"/>
+        <c:axId val="1714151856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +829,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575610688"/>
+        <c:crossAx val="1714142608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="575610688"/>
+        <c:axId val="1714142608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +888,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575600352"/>
+        <c:crossAx val="1714151856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1068,10 +1125,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1296,16 +1353,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>131</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.299999999999997</c:v>
+                  <c:v>18.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8599999999999994</c:v>
+                  <c:v>3.7199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9299999999999997</c:v>
+                  <c:v>1.8599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,11 +1382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2135958848"/>
-        <c:axId val="2135959392"/>
+        <c:axId val="1714147504"/>
+        <c:axId val="1714156752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135958848"/>
+        <c:axId val="1714147504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135959392"/>
+        <c:crossAx val="1714156752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1380,7 +1437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135959392"/>
+        <c:axId val="1714156752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1488,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135958848"/>
+        <c:crossAx val="1714147504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1632,34 +1689,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>174</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>195</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>167</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>121</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,34 +1796,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>209</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>136</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,8 +1844,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2135951232"/>
-        <c:axId val="2135961568"/>
+        <c:axId val="1714157840"/>
+        <c:axId val="1714138256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1864,34 +1921,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.55652173913043479</c:v>
+                  <c:v>1.896551724137931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8846153846153846</c:v>
+                  <c:v>1.5522388059701493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54878048780487809</c:v>
+                  <c:v>1.4390243902439024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0057803468208093</c:v>
+                  <c:v>1.9207920792079207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90476190476190477</c:v>
+                  <c:v>1.0710059171597632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3636363636363635</c:v>
+                  <c:v>0.65040650406504064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2264150943396226</c:v>
+                  <c:v>0.76732673267326734</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45933014354066987</c:v>
+                  <c:v>0.66956521739130437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2279411764705883</c:v>
+                  <c:v>0.74747474747474751</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3010752688172043</c:v>
+                  <c:v>0.47101449275362317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,11 +1970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135943072"/>
-        <c:axId val="2135962112"/>
+        <c:axId val="1714158384"/>
+        <c:axId val="1714144240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135951232"/>
+        <c:axId val="1714157840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,7 +2017,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135961568"/>
+        <c:crossAx val="1714138256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1968,7 +2025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135961568"/>
+        <c:axId val="1714138256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,12 +2076,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135951232"/>
+        <c:crossAx val="1714157840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135962112"/>
+        <c:axId val="1714144240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,12 +2118,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135943072"/>
+        <c:crossAx val="1714158384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2135943072"/>
+        <c:axId val="1714158384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135962112"/>
+        <c:crossAx val="1714144240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2307,10 +2364,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,10 +2424,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2391,11 +2448,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2135933824"/>
-        <c:axId val="2135934912"/>
+        <c:axId val="1714129552"/>
+        <c:axId val="1714128464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135933824"/>
+        <c:axId val="1714129552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +2495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135934912"/>
+        <c:crossAx val="1714128464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2446,7 +2503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135934912"/>
+        <c:axId val="1714128464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135933824"/>
+        <c:crossAx val="1714129552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2723,16 +2780,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,16 +2851,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>167</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,11 +2880,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="2135936000"/>
-        <c:axId val="2135943616"/>
+        <c:axId val="1714130640"/>
+        <c:axId val="1714131728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135936000"/>
+        <c:axId val="1714130640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2927,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135943616"/>
+        <c:crossAx val="1714131728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2878,7 +2935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135943616"/>
+        <c:axId val="1714131728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,7 +2986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135936000"/>
+        <c:crossAx val="1714130640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3150,13 +3207,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3410,34 +3467,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>288</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>393</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>374</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>358</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>117</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>289</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>215</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3454,11 +3511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2071921536"/>
-        <c:axId val="2071923712"/>
+        <c:axId val="1714144784"/>
+        <c:axId val="1714145328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2071921536"/>
+        <c:axId val="1714144784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3501,7 +3558,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071923712"/>
+        <c:crossAx val="1714145328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3509,7 +3566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2071923712"/>
+        <c:axId val="1714145328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,7 +3617,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071921536"/>
+        <c:crossAx val="1714144784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3749,10 +3806,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>152</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4024,13 +4081,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>162</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4277,10 +4334,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4515,10 +4572,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1171</c:v>
+                  <c:v>1347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1108</c:v>
+                  <c:v>1417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4538,11 +4595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="575593280"/>
-        <c:axId val="575595456"/>
+        <c:axId val="1714143696"/>
+        <c:axId val="1714146960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="575593280"/>
+        <c:axId val="1714143696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4585,7 +4642,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575595456"/>
+        <c:crossAx val="1714146960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4593,7 +4650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="575595456"/>
+        <c:axId val="1714146960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4644,7 +4701,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575593280"/>
+        <c:crossAx val="1714143696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4840,10 +4897,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5068,16 +5125,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>159</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.699999999999996</c:v>
+                  <c:v>30.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5399999999999991</c:v>
+                  <c:v>6.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7699999999999996</c:v>
+                  <c:v>3.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5097,11 +5154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2071918272"/>
-        <c:axId val="2071916640"/>
+        <c:axId val="1587294272"/>
+        <c:axId val="1587283392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2071918272"/>
+        <c:axId val="1587294272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5144,7 +5201,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071916640"/>
+        <c:crossAx val="1587283392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5152,7 +5209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2071916640"/>
+        <c:axId val="1587283392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5203,7 +5260,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071918272"/>
+        <c:crossAx val="1587294272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5404,34 +5461,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>193</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>183</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>149</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5511,34 +5568,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>111</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5559,8 +5616,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2071922624"/>
-        <c:axId val="2071918816"/>
+        <c:axId val="1587295360"/>
+        <c:axId val="1587296448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5636,34 +5693,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.47747747747747749</c:v>
+                  <c:v>1.7155963302752293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8214285714285714</c:v>
+                  <c:v>0.48854961832061067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2532467532467533</c:v>
+                  <c:v>1.0173410404624277</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7647058823529411</c:v>
+                  <c:v>1.2881355932203389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78712871287128716</c:v>
+                  <c:v>0.8110236220472441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4336283185840708</c:v>
+                  <c:v>3.2641509433962264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39705882352941174</c:v>
+                  <c:v>1.0673076923076923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98863636363636365</c:v>
+                  <c:v>1.0135135135135136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8118811881188119</c:v>
+                  <c:v>1.2948717948717949</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.403225806451613</c:v>
+                  <c:v>1.0971428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5685,11 +5742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2071920448"/>
-        <c:axId val="2071919360"/>
+        <c:axId val="1587296992"/>
+        <c:axId val="1587295904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2071922624"/>
+        <c:axId val="1587295360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5732,7 +5789,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071918816"/>
+        <c:crossAx val="1587296448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5740,7 +5797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2071918816"/>
+        <c:axId val="1587296448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5791,12 +5848,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071922624"/>
+        <c:crossAx val="1587295360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2071919360"/>
+        <c:axId val="1587295904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5833,12 +5890,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071920448"/>
+        <c:crossAx val="1587296992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2071920448"/>
+        <c:axId val="1587296992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,7 +5905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071919360"/>
+        <c:crossAx val="1587295904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6079,10 +6136,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>176</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6139,10 +6196,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6163,11 +6220,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2073099600"/>
-        <c:axId val="2073108304"/>
+        <c:axId val="1587284480"/>
+        <c:axId val="1587285024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073099600"/>
+        <c:axId val="1587284480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6210,7 +6267,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073108304"/>
+        <c:crossAx val="1587285024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6218,7 +6275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073108304"/>
+        <c:axId val="1587285024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6269,7 +6326,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073099600"/>
+        <c:crossAx val="1587284480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6488,16 +6545,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>127</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>174</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6559,16 +6616,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>169</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>207</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6588,11 +6645,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="2073107216"/>
-        <c:axId val="2073097424"/>
+        <c:axId val="1588087648"/>
+        <c:axId val="1588092544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073107216"/>
+        <c:axId val="1588087648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6635,7 +6692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073097424"/>
+        <c:crossAx val="1588092544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6643,7 +6700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073097424"/>
+        <c:axId val="1588092544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6694,7 +6751,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073107216"/>
+        <c:crossAx val="1588087648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6940,13 +6997,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>193</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7200,34 +7257,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>382</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>293</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>326</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>325</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7244,11 +7301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073102864"/>
-        <c:axId val="2073103408"/>
+        <c:axId val="1588088192"/>
+        <c:axId val="1588090912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073102864"/>
+        <c:axId val="1588088192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7291,7 +7348,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073103408"/>
+        <c:crossAx val="1588090912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7299,7 +7356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073103408"/>
+        <c:axId val="1588090912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7350,7 +7407,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073102864"/>
+        <c:crossAx val="1588088192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7362,6 +7419,229 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>当前存量分析</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'回款分析 '!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>当季度存量，当季度逾期存量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'回款分析 '!$B$13:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7564,34 +7844,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>355</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>377</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>269</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>167</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>255</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>308</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7612,11 +7892,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="575618304"/>
-        <c:axId val="575618848"/>
+        <c:axId val="1714160560"/>
+        <c:axId val="1714156208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="575618304"/>
+        <c:axId val="1714160560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7659,7 +7939,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575618848"/>
+        <c:crossAx val="1714156208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7667,7 +7947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="575618848"/>
+        <c:axId val="1714156208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7718,7 +7998,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575618304"/>
+        <c:crossAx val="1714160560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8041,34 +8321,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>152</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>198</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>208</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8375,22 +8655,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>190</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>144</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>153</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8525,7 +8805,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15351903258148783"/>
+          <c:y val="8.666666666666667E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8563,7 +8850,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.28615079716930114"/>
-          <c:y val="0.27079623567522215"/>
+          <c:y val="0.29079632545931761"/>
           <c:w val="0.57253446540500563"/>
           <c:h val="0.51855939934724382"/>
         </c:manualLayout>
@@ -8629,22 +8916,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8659,11 +8946,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2135962656"/>
-        <c:axId val="2135949056"/>
+        <c:axId val="1714148592"/>
+        <c:axId val="1714152944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135962656"/>
+        <c:axId val="1714148592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8706,7 +8993,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135949056"/>
+        <c:crossAx val="1714152944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8714,7 +9001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135949056"/>
+        <c:axId val="1714152944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8765,7 +9052,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135962656"/>
+        <c:crossAx val="1714148592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8954,10 +9241,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>181</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9229,13 +9516,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>195</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9482,10 +9769,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10352,6 +10639,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -20311,6 +20638,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -24003,8 +24849,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
@@ -24099,16 +24945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>904876</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24545,15 +25391,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
+      <xdr:colOff>242887</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24570,6 +25416,280 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="11268075"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="5048250"/>
+          <a:ext cx="2019300" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="流程图: 手动操作 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="5695950"/>
+          <a:ext cx="1266825" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualOperation">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当季未签预计完成额</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="流程图: 手动操作 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209926" y="6238876"/>
+          <a:ext cx="761999" cy="485774"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualOperation">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>概率合同额</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="流程图: 手动操作 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="5105400"/>
+          <a:ext cx="2057399" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualOperation">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当季度预计完成数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -24945,6 +26065,92 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="5019675"/>
+          <a:ext cx="1933575" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>130078</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="图表 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -25245,10 +26451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O56"/>
+  <dimension ref="B1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25304,44 +26510,44 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(100,400)</f>
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(300,800)</f>
-        <v>562</v>
+        <v>392</v>
       </c>
       <c r="J5">
         <v>2010</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(100,400)</f>
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M5" t="s">
         <v>44</v>
       </c>
       <c r="N5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -25350,36 +26556,36 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:F14" ca="1" si="0">RANDBETWEEN(50,210)</f>
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J6">
         <v>2011</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K14" ca="1" si="1">RANDBETWEEN(100,400)</f>
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M6" t="s">
         <v>45</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:O10" ca="1" si="2">RANDBETWEEN(50,210)</f>
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -25388,36 +26594,36 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="J7">
         <v>2012</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>346</v>
+        <v>179</v>
       </c>
       <c r="M7" t="s">
         <v>46</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
@@ -25426,36 +26632,36 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="J8">
         <v>2013</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>377</v>
+        <v>168</v>
       </c>
       <c r="M8" t="s">
         <v>47</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
@@ -25464,36 +26670,36 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J9">
         <v>2014</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M9" t="s">
         <v>48</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -25502,36 +26708,36 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J10">
         <v>2015</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="M10" t="s">
         <v>49</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="2"/>
-        <v>160</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -25540,25 +26746,25 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="J11">
         <v>2016</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -25567,11 +26773,11 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -25585,7 +26791,7 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -25594,25 +26800,25 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="J13">
         <v>2018</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
@@ -25621,35 +26827,35 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="J14">
         <v>2019</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>308</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15">
         <f ca="1">SUM(C5:C14)</f>
-        <v>1171</v>
+        <v>1347</v>
       </c>
       <c r="D15">
         <f ca="1">SUM(D5:D14)</f>
-        <v>1108</v>
+        <v>1417</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -25657,7 +26863,7 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
@@ -25678,6 +26884,11 @@
     <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -25689,10 +26900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P63"/>
+  <dimension ref="B1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25742,19 +26953,19 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -25764,26 +26975,26 @@
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="L5">
         <f ca="1">J5/K5</f>
-        <v>0.55652173913043479</v>
+        <v>1.896551724137931</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="P5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>181</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -25796,15 +27007,15 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <f ca="1">F5*0.3</f>
-        <v>39.299999999999997</v>
+        <v>18.599999999999998</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -25814,26 +27025,26 @@
       </c>
       <c r="J6">
         <f t="shared" ref="J6:K14" ca="1" si="1">RANDBETWEEN(50,210)</f>
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L14" ca="1" si="2">J6/K6</f>
-        <v>2.8846153846153846</v>
+        <v>1.5522388059701493</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
       </c>
       <c r="O6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -25842,19 +27053,19 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="F7">
         <f ca="1">F6*0.2</f>
-        <v>7.8599999999999994</v>
+        <v>3.7199999999999998</v>
       </c>
       <c r="H7" t="s">
         <v>54</v>
@@ -25864,15 +27075,15 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54878048780487809</v>
+        <v>1.4390243902439024</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -25881,34 +27092,34 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="F8">
         <f ca="1">F7*0.5</f>
-        <v>3.9299999999999997</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0057803468208093</v>
+        <v>1.9207920792079207</v>
       </c>
       <c r="O8" t="s">
         <v>55</v>
@@ -25917,33 +27128,33 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9">
         <f ca="1">SUM(C5:C8)</f>
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D9">
         <f ca="1">SUM(D5:D8)</f>
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90476190476190477</v>
+        <v>1.0710059171597632</v>
       </c>
       <c r="N9">
         <v>2010</v>
       </c>
       <c r="O9">
         <f ca="1">RANDBETWEEN(100,400)</f>
-        <v>288</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
@@ -25952,22 +27163,22 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3636363636363635</v>
+        <v>0.65040650406504064</v>
       </c>
       <c r="N10">
         <v>2011</v>
       </c>
       <c r="O10">
         <f t="shared" ref="O10:O18" ca="1" si="3">RANDBETWEEN(100,400)</f>
-        <v>169</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
@@ -25976,22 +27187,22 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2264150943396226</v>
+        <v>0.76732673267326734</v>
       </c>
       <c r="N11">
         <v>2012</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>393</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
@@ -26000,22 +27211,22 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45933014354066987</v>
+        <v>0.66956521739130437</v>
       </c>
       <c r="N12">
         <v>2013</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>374</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -26024,22 +27235,22 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2279411764705883</v>
+        <v>0.74747474747474751</v>
       </c>
       <c r="N13">
         <v>2014</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>358</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -26048,22 +27259,22 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3010752688172043</v>
+        <v>0.47101449275362317</v>
       </c>
       <c r="N14">
         <v>2015</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>121</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
@@ -26072,7 +27283,7 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>152</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
@@ -26081,7 +27292,7 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -26090,7 +27301,7 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>289</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
@@ -26102,12 +27313,12 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>215</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
@@ -26122,7 +27333,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -26137,6 +27348,21 @@
         <v>60</v>
       </c>
     </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26147,22 +27373,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P63"/>
+  <dimension ref="B1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:J60"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
@@ -26179,10 +27405,10 @@
         <v>36</v>
       </c>
       <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
         <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
       </c>
       <c r="L4" t="s">
         <v>40</v>
@@ -26200,19 +27426,19 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -26222,26 +27448,26 @@
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L5">
         <f ca="1">J5/K5</f>
-        <v>0.47747747747747749</v>
+        <v>1.7155963302752293</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="P5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>176</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -26250,19 +27476,19 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:E8" ca="1" si="0">RANDBETWEEN(50,210)</f>
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="F6">
         <f ca="1">F5*0.3</f>
-        <v>47.699999999999996</v>
+        <v>30.9</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -26272,26 +27498,26 @@
       </c>
       <c r="J6">
         <f t="shared" ref="J6:K14" ca="1" si="1">RANDBETWEEN(50,210)</f>
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L14" ca="1" si="2">J6/K6</f>
-        <v>0.8214285714285714</v>
+        <v>0.48854961832061067</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
       </c>
       <c r="O6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -26300,19 +27526,19 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F7">
         <f ca="1">F6*0.2</f>
-        <v>9.5399999999999991</v>
+        <v>6.18</v>
       </c>
       <c r="H7" t="s">
         <v>54</v>
@@ -26322,15 +27548,15 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2532467532467533</v>
+        <v>1.0173410404624277</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -26339,69 +27565,69 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <f ca="1">F7*0.5</f>
-        <v>4.7699999999999996</v>
+        <v>3.09</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7647058823529411</v>
+        <v>1.2881355932203389</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9">
         <f ca="1">SUM(C5:C8)</f>
-        <v>359</v>
+        <v>626</v>
       </c>
       <c r="D9">
         <f ca="1">SUM(D5:D8)</f>
-        <v>605</v>
+        <v>486</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78712871287128716</v>
+        <v>0.8110236220472441</v>
       </c>
       <c r="N9">
         <v>2010</v>
       </c>
       <c r="O9">
         <f ca="1">RANDBETWEEN(100,400)</f>
-        <v>382</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
@@ -26410,22 +27636,22 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4336283185840708</v>
+        <v>3.2641509433962264</v>
       </c>
       <c r="N10">
         <v>2011</v>
       </c>
       <c r="O10">
         <f t="shared" ref="O10:O18" ca="1" si="3">RANDBETWEEN(100,400)</f>
-        <v>109</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
@@ -26434,70 +27660,81 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39705882352941174</v>
+        <v>1.0673076923076923</v>
       </c>
       <c r="N11">
         <v>2012</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>293</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98863636363636365</v>
+        <v>1.0135135135135136</v>
       </c>
       <c r="N12">
         <v>2013</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>278</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f t="shared" ref="B13:C13" ca="1" si="4">RANDBETWEEN(50,210)</f>
+        <v>159</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="4"/>
+        <v>108</v>
+      </c>
       <c r="I13" t="s">
         <v>11</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8118811881188119</v>
+        <v>1.2948717948717949</v>
       </c>
       <c r="N13">
         <v>2014</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>326</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -26506,22 +27743,22 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="2"/>
-        <v>2.403225806451613</v>
+        <v>1.0971428571428572</v>
       </c>
       <c r="N14">
         <v>2015</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>203</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
@@ -26530,7 +27767,7 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
@@ -26539,7 +27776,7 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>207</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -26548,29 +27785,29 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N18">
         <v>2019</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>325</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -26588,7 +27825,14 @@
       <c r="B62" s="2"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/workfile/锐安项目文档/方案页面原型及修改/经营指标分析-v1.1.xlsx
+++ b/workfile/锐安项目文档/方案页面原型及修改/经营指标分析-v1.1.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="合同总额分析" sheetId="1" r:id="rId1"/>
     <sheet name="业绩总额分析" sheetId="2" r:id="rId2"/>
     <sheet name="回款分析 " sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -604,34 +604,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>195</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,8 +651,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1714151856"/>
-        <c:axId val="1714142608"/>
+        <c:axId val="-247102528"/>
+        <c:axId val="-247101984"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -743,34 +743,34 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>149</c:v>
+                        <c:v>127</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>163</c:v>
+                        <c:v>141</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>189</c:v>
+                        <c:v>113</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>71</c:v>
+                        <c:v>155</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>205</c:v>
+                        <c:v>107</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>158</c:v>
+                        <c:v>101</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>167</c:v>
+                        <c:v>152</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>66</c:v>
+                        <c:v>186</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>193</c:v>
+                        <c:v>117</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>56</c:v>
+                        <c:v>125</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -786,7 +786,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1714151856"/>
+        <c:axId val="-247102528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +829,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714142608"/>
+        <c:crossAx val="-247101984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -837,7 +837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1714142608"/>
+        <c:axId val="-247101984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +888,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714151856"/>
+        <c:crossAx val="-247102528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,7 +1025,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1125,10 +1124,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>112</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,7 +1160,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1275,7 +1273,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1353,16 +1350,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.599999999999998</c:v>
+                  <c:v>60.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7199999999999998</c:v>
+                  <c:v>12.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8599999999999999</c:v>
+                  <c:v>6.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,11 +1379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1714147504"/>
-        <c:axId val="1714156752"/>
+        <c:axId val="-209038528"/>
+        <c:axId val="-209040704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1714147504"/>
+        <c:axId val="-209038528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1426,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714156752"/>
+        <c:crossAx val="-209040704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1437,7 +1434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1714156752"/>
+        <c:axId val="-209040704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714147504"/>
+        <c:crossAx val="-209038528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1583,7 +1580,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1689,34 +1685,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>194</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>155</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>77</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,34 +1792,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>169</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>202</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>138</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,8 +1840,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1714157840"/>
-        <c:axId val="1714138256"/>
+        <c:axId val="-209034720"/>
+        <c:axId val="-209042880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1921,34 +1917,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.896551724137931</c:v>
+                  <c:v>1.9358974358974359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5522388059701493</c:v>
+                  <c:v>1.7833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4390243902439024</c:v>
+                  <c:v>0.42131979695431471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9207920792079207</c:v>
+                  <c:v>0.93571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0710059171597632</c:v>
+                  <c:v>1.017391304347826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65040650406504064</c:v>
+                  <c:v>1.6527777777777777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76732673267326734</c:v>
+                  <c:v>1.8130841121495327</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66956521739130437</c:v>
+                  <c:v>0.66857142857142859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.74747474747474751</c:v>
+                  <c:v>1.0660377358490567</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47101449275362317</c:v>
+                  <c:v>0.31606217616580312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,11 +1966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1714158384"/>
-        <c:axId val="1714144240"/>
+        <c:axId val="-209033088"/>
+        <c:axId val="-209034176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1714157840"/>
+        <c:axId val="-209034720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2013,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714138256"/>
+        <c:crossAx val="-209042880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2025,7 +2021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1714138256"/>
+        <c:axId val="-209042880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,12 +2072,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714157840"/>
+        <c:crossAx val="-209034720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1714144240"/>
+        <c:axId val="-209034176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,12 +2114,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714158384"/>
+        <c:crossAx val="-209033088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1714158384"/>
+        <c:axId val="-209033088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,7 +2129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1714144240"/>
+        <c:crossAx val="-209034176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2150,7 +2146,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2364,10 +2359,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>161</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,10 +2419,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>133</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,11 +2443,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1714129552"/>
-        <c:axId val="1714128464"/>
+        <c:axId val="-209040160"/>
+        <c:axId val="-209039616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1714129552"/>
+        <c:axId val="-209040160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2490,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714128464"/>
+        <c:crossAx val="-209039616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2503,7 +2498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1714128464"/>
+        <c:axId val="-209039616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,7 +2549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714129552"/>
+        <c:crossAx val="-209040160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2568,7 +2563,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2780,16 +2774,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>196</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2851,16 +2845,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>198</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>187</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2880,11 +2874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1714130640"/>
-        <c:axId val="1714131728"/>
+        <c:axId val="-206174704"/>
+        <c:axId val="-206177968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1714130640"/>
+        <c:axId val="-206174704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +2921,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714131728"/>
+        <c:crossAx val="-206177968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2935,7 +2929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1714131728"/>
+        <c:axId val="-206177968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2980,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714130640"/>
+        <c:crossAx val="-206174704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3000,7 +2994,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3207,13 +3200,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3240,7 +3233,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3347,7 +3339,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3467,34 +3458,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>173</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>194</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>377</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>225</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>336</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3511,11 +3502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1714144784"/>
-        <c:axId val="1714145328"/>
+        <c:axId val="-206175792"/>
+        <c:axId val="-206175248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1714144784"/>
+        <c:axId val="-206175792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3558,7 +3549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714145328"/>
+        <c:crossAx val="-206175248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3566,7 +3557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1714145328"/>
+        <c:axId val="-206175248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3617,7 +3608,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714144784"/>
+        <c:crossAx val="-206175792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3706,7 +3697,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3806,10 +3796,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>172</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3842,7 +3832,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3956,7 +3945,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4081,13 +4069,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>173</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4120,7 +4108,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4234,7 +4221,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4334,7 +4320,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>188</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>95</c:v>
@@ -4370,7 +4356,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4572,10 +4557,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1347</c:v>
+                  <c:v>1411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1417</c:v>
+                  <c:v>1324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4595,11 +4580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1714143696"/>
-        <c:axId val="1714146960"/>
+        <c:axId val="-247098720"/>
+        <c:axId val="-247098176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1714143696"/>
+        <c:axId val="-247098720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4642,7 +4627,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714146960"/>
+        <c:crossAx val="-247098176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4650,7 +4635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1714146960"/>
+        <c:axId val="-247098176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,7 +4686,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714143696"/>
+        <c:crossAx val="-247098720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4797,7 +4782,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4897,10 +4881,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4933,7 +4917,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5047,7 +5030,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5125,16 +5107,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.9</c:v>
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.18</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.09</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5154,11 +5136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1587294272"/>
-        <c:axId val="1587283392"/>
+        <c:axId val="-205752288"/>
+        <c:axId val="-205744128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1587294272"/>
+        <c:axId val="-205752288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5201,7 +5183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1587283392"/>
+        <c:crossAx val="-205744128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5209,7 +5191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1587283392"/>
+        <c:axId val="-205744128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,7 +5242,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1587294272"/>
+        <c:crossAx val="-205752288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5355,7 +5337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5461,34 +5442,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>187</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5568,34 +5549,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>109</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>173</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>127</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>175</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5616,8 +5597,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1587295360"/>
-        <c:axId val="1587296448"/>
+        <c:axId val="-205751744"/>
+        <c:axId val="-205751200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5693,34 +5674,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7155963302752293</c:v>
+                  <c:v>1.5087719298245614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48854961832061067</c:v>
+                  <c:v>0.3888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0173410404624277</c:v>
+                  <c:v>1.6578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2881355932203389</c:v>
+                  <c:v>1.2195121951219512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8110236220472441</c:v>
+                  <c:v>0.97368421052631582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2641509433962264</c:v>
+                  <c:v>0.41463414634146339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0673076923076923</c:v>
+                  <c:v>1.0566037735849056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0135135135135136</c:v>
+                  <c:v>0.67924528301886788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2948717948717949</c:v>
+                  <c:v>1.7926829268292683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0971428571428572</c:v>
+                  <c:v>0.75735294117647056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5742,11 +5723,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1587296992"/>
-        <c:axId val="1587295904"/>
+        <c:axId val="-205750656"/>
+        <c:axId val="-205749568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1587295360"/>
+        <c:axId val="-205751744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5789,7 +5770,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1587296448"/>
+        <c:crossAx val="-205751200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5797,7 +5778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1587296448"/>
+        <c:axId val="-205751200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,12 +5829,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1587295360"/>
+        <c:crossAx val="-205751744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1587295904"/>
+        <c:axId val="-205749568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5890,12 +5871,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1587296992"/>
+        <c:crossAx val="-205750656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1587296992"/>
+        <c:axId val="-205750656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5905,7 +5886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1587295904"/>
+        <c:crossAx val="-205749568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5922,7 +5903,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6136,10 +6116,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6196,10 +6176,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>190</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6220,11 +6200,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1587284480"/>
-        <c:axId val="1587285024"/>
+        <c:axId val="-205753376"/>
+        <c:axId val="-205743040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1587284480"/>
+        <c:axId val="-205753376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6267,7 +6247,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1587285024"/>
+        <c:crossAx val="-205743040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6275,7 +6255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1587285024"/>
+        <c:axId val="-205743040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6326,7 +6306,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1587284480"/>
+        <c:crossAx val="-205753376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6340,7 +6320,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6447,7 +6426,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6545,16 +6523,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>165</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6616,16 +6594,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6645,11 +6623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1588087648"/>
-        <c:axId val="1588092544"/>
+        <c:axId val="-205747936"/>
+        <c:axId val="-205746848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1588087648"/>
+        <c:axId val="-205747936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6692,7 +6670,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588092544"/>
+        <c:crossAx val="-205746848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6700,7 +6678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1588092544"/>
+        <c:axId val="-205746848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6751,7 +6729,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588087648"/>
+        <c:crossAx val="-205747936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6765,7 +6743,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6997,13 +6974,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>187</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7030,7 +7007,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7137,7 +7113,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7257,34 +7232,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>348</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>294</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>307</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>386</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>326</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>237</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7301,11 +7276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1588088192"/>
-        <c:axId val="1588090912"/>
+        <c:axId val="-205755552"/>
+        <c:axId val="-205755008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1588088192"/>
+        <c:axId val="-205755552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7348,7 +7323,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588090912"/>
+        <c:crossAx val="-205755008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7356,7 +7331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1588090912"/>
+        <c:axId val="-205755008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7407,7 +7382,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588088192"/>
+        <c:crossAx val="-205755552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7496,7 +7471,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7582,10 +7556,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>159</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7612,7 +7586,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7844,34 +7817,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>154</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>342</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>271</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>135</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>198</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>247</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>142</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7892,11 +7865,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1714160560"/>
-        <c:axId val="1714156208"/>
+        <c:axId val="-840913616"/>
+        <c:axId val="-840915792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1714160560"/>
+        <c:axId val="-840913616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7939,7 +7912,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714156208"/>
+        <c:crossAx val="-840915792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7947,7 +7920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1714156208"/>
+        <c:axId val="-840915792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7998,7 +7971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714160560"/>
+        <c:crossAx val="-840913616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8321,34 +8294,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>97</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>111</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>146</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>164</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8655,22 +8628,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>204</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>167</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>159</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8916,22 +8889,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>172</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8946,11 +8919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1714148592"/>
-        <c:axId val="1714152944"/>
+        <c:axId val="-209041248"/>
+        <c:axId val="-209037440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1714148592"/>
+        <c:axId val="-209041248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8993,7 +8966,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714152944"/>
+        <c:crossAx val="-209037440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9001,7 +8974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1714152944"/>
+        <c:axId val="-209037440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9052,7 +9025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714148592"/>
+        <c:crossAx val="-209041248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9141,7 +9114,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9241,10 +9213,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>190</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9277,7 +9249,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9391,7 +9362,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9516,13 +9486,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9555,7 +9525,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9669,7 +9638,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9769,10 +9737,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9805,7 +9773,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26453,7 +26420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -26510,44 +26477,44 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(100,400)</f>
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(300,800)</f>
-        <v>392</v>
+        <v>637</v>
       </c>
       <c r="J5">
         <v>2010</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(100,400)</f>
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="M5" t="s">
         <v>44</v>
       </c>
       <c r="N5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -26556,36 +26523,36 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:F14" ca="1" si="0">RANDBETWEEN(50,210)</f>
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="J6">
         <v>2011</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K14" ca="1" si="1">RANDBETWEEN(100,400)</f>
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="M6" t="s">
         <v>45</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:O10" ca="1" si="2">RANDBETWEEN(50,210)</f>
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="2"/>
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -26594,36 +26561,36 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>2012</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="M7" t="s">
         <v>46</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
@@ -26632,36 +26599,36 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J8">
         <v>2013</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="M8" t="s">
         <v>47</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="2"/>
-        <v>176</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
@@ -26670,36 +26637,36 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="J9">
         <v>2014</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="M9" t="s">
         <v>48</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="2"/>
-        <v>202</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -26708,36 +26675,36 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="J10">
         <v>2015</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>371</v>
       </c>
       <c r="M10" t="s">
         <v>49</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -26746,25 +26713,25 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J11">
         <v>2016</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -26773,25 +26740,25 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J12">
         <v>2017</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -26800,25 +26767,25 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="J13">
         <v>2018</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
@@ -26827,35 +26794,35 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J14">
         <v>2019</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>142</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15">
         <f ca="1">SUM(C5:C14)</f>
-        <v>1347</v>
+        <v>1411</v>
       </c>
       <c r="D15">
         <f ca="1">SUM(D5:D14)</f>
-        <v>1417</v>
+        <v>1324</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -26902,7 +26869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
@@ -26953,19 +26920,19 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -26975,26 +26942,26 @@
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="L5">
         <f ca="1">J5/K5</f>
-        <v>1.896551724137931</v>
+        <v>1.9358974358974359</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="P5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -27003,19 +26970,19 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:E8" ca="1" si="0">RANDBETWEEN(50,210)</f>
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <f ca="1">F5*0.3</f>
-        <v>18.599999999999998</v>
+        <v>60.9</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -27025,26 +26992,26 @@
       </c>
       <c r="J6">
         <f t="shared" ref="J6:K14" ca="1" si="1">RANDBETWEEN(50,210)</f>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L14" ca="1" si="2">J6/K6</f>
-        <v>1.5522388059701493</v>
+        <v>1.7833333333333334</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
       </c>
       <c r="O6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -27053,19 +27020,19 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F7">
         <f ca="1">F6*0.2</f>
-        <v>3.7199999999999998</v>
+        <v>12.18</v>
       </c>
       <c r="H7" t="s">
         <v>54</v>
@@ -27075,15 +27042,15 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4390243902439024</v>
+        <v>0.42131979695431471</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -27092,34 +27059,34 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <f ca="1">F7*0.5</f>
-        <v>1.8599999999999999</v>
+        <v>6.09</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9207920792079207</v>
+        <v>0.93571428571428572</v>
       </c>
       <c r="O8" t="s">
         <v>55</v>
@@ -27128,33 +27095,33 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9">
         <f ca="1">SUM(C5:C8)</f>
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="D9">
         <f ca="1">SUM(D5:D8)</f>
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0710059171597632</v>
+        <v>1.017391304347826</v>
       </c>
       <c r="N9">
         <v>2010</v>
       </c>
       <c r="O9">
         <f ca="1">RANDBETWEEN(100,400)</f>
-        <v>173</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
@@ -27163,22 +27130,22 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65040650406504064</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="N10">
         <v>2011</v>
       </c>
       <c r="O10">
         <f t="shared" ref="O10:O18" ca="1" si="3">RANDBETWEEN(100,400)</f>
-        <v>393</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
@@ -27187,22 +27154,22 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76732673267326734</v>
+        <v>1.8130841121495327</v>
       </c>
       <c r="N11">
         <v>2012</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>124</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
@@ -27211,22 +27178,22 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66956521739130437</v>
+        <v>0.66857142857142859</v>
       </c>
       <c r="N12">
         <v>2013</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -27235,22 +27202,22 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74747474747474751</v>
+        <v>1.0660377358490567</v>
       </c>
       <c r="N13">
         <v>2014</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>241</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -27259,22 +27226,22 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47101449275362317</v>
+        <v>0.31606217616580312</v>
       </c>
       <c r="N14">
         <v>2015</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>250</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
@@ -27283,7 +27250,7 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>377</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
@@ -27292,7 +27259,7 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>112</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -27301,7 +27268,7 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>225</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
@@ -27313,7 +27280,7 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>336</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
@@ -27426,19 +27393,19 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -27448,26 +27415,26 @@
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="L5">
         <f ca="1">J5/K5</f>
-        <v>1.7155963302752293</v>
+        <v>1.5087719298245614</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="P5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -27476,19 +27443,19 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:E8" ca="1" si="0">RANDBETWEEN(50,210)</f>
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="F6">
         <f ca="1">F5*0.3</f>
-        <v>30.9</v>
+        <v>17.7</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -27498,26 +27465,26 @@
       </c>
       <c r="J6">
         <f t="shared" ref="J6:K14" ca="1" si="1">RANDBETWEEN(50,210)</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L14" ca="1" si="2">J6/K6</f>
-        <v>0.48854961832061067</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
       </c>
       <c r="O6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -27526,7 +27493,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
@@ -27534,11 +27501,11 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="F7">
         <f ca="1">F6*0.2</f>
-        <v>6.18</v>
+        <v>3.54</v>
       </c>
       <c r="H7" t="s">
         <v>54</v>
@@ -27548,15 +27515,15 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0173410404624277</v>
+        <v>1.6578947368421053</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -27565,34 +27532,34 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <f ca="1">F7*0.5</f>
-        <v>3.09</v>
+        <v>1.77</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2881355932203389</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="O8" t="s">
         <v>66</v>
@@ -27601,33 +27568,33 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9">
         <f ca="1">SUM(C5:C8)</f>
-        <v>626</v>
+        <v>461</v>
       </c>
       <c r="D9">
         <f ca="1">SUM(D5:D8)</f>
-        <v>486</v>
+        <v>383</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8110236220472441</v>
+        <v>0.97368421052631582</v>
       </c>
       <c r="N9">
         <v>2010</v>
       </c>
       <c r="O9">
         <f ca="1">RANDBETWEEN(100,400)</f>
-        <v>348</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
@@ -27636,22 +27603,22 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2641509433962264</v>
+        <v>0.41463414634146339</v>
       </c>
       <c r="N10">
         <v>2011</v>
       </c>
       <c r="O10">
         <f t="shared" ref="O10:O18" ca="1" si="3">RANDBETWEEN(100,400)</f>
-        <v>294</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
@@ -27660,22 +27627,22 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0673076923076923</v>
+        <v>1.0566037735849056</v>
       </c>
       <c r="N11">
         <v>2012</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>101</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
@@ -27687,54 +27654,54 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0135135135135136</v>
+        <v>0.67924528301886788</v>
       </c>
       <c r="N12">
         <v>2013</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>307</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13">
         <f t="shared" ref="B13:C13" ca="1" si="4">RANDBETWEEN(50,210)</f>
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="4"/>
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2948717948717949</v>
+        <v>1.7926829268292683</v>
       </c>
       <c r="N13">
         <v>2014</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>188</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -27743,22 +27710,22 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0971428571428572</v>
+        <v>0.75735294117647056</v>
       </c>
       <c r="N14">
         <v>2015</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
@@ -27767,7 +27734,7 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
@@ -27776,7 +27743,7 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>143</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -27785,7 +27752,7 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>326</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
@@ -27797,7 +27764,7 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>237</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
